--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_6_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_6_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>637511.7261012136</v>
+        <v>638295.8720392422</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443405</v>
+        <v>1225477.018443406</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5246923.328416015</v>
+        <v>5246923.328416014</v>
       </c>
     </row>
     <row r="11">
@@ -656,62 +658,62 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>169.0708280266249</v>
+      </c>
+      <c r="J2" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="T2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -750,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>14.48693373137008</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -789,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
       <c r="X3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.5178444382804</v>
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>39.82778746869523</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -896,67 +898,67 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="D5" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>205.5178444382804</v>
@@ -990,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1026,19 +1028,19 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>14.48693373137006</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>205.5178444382804</v>
+        <v>107.769333933154</v>
       </c>
       <c r="W6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>133.186967585368</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1130,73 +1132,73 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>169.0708280266249</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C8" t="n">
+      <c r="X8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>205.5178444382804</v>
@@ -1209,31 +1211,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>7.692106705274854</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>5.211223902333198</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1278,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="10">
@@ -1367,73 +1369,73 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D11" t="n">
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="X11" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>8.311618392921693</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1494,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>5.414352191821522</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="13">
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1661,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="V14" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W14" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="X14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="15">
@@ -1686,13 +1688,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>7.692106705274854</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>23.95254215013359</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1704,7 +1706,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -1749,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1853,55 +1855,55 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>232.8330857361503</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S17" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T17" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1977,19 +1979,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>16.62553367015321</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2044,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2078,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2096,58 +2098,58 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R20" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S20" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T20" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U20" t="n">
-        <v>102.3382270926889</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,13 +2162,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>50.05769526855308</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2178,10 +2180,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>215.5342136920428</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2327,16 +2329,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>33.80371536444981</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2394,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>86.33905572537007</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2442,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>135.4141600157168</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2530,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2561,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2597,22 +2599,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2634,25 +2636,25 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>102.3193935893247</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>21.3246258690077</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2716,58 +2718,58 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2789,76 +2791,76 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="I29" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.809496073036132</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>11.19305615617957</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T29" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="30">
@@ -2868,25 +2870,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>64.67263725582607</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>39.68535441499405</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3010,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
         <v>200.3360962888297</v>
       </c>
-      <c r="C32" t="n">
+      <c r="F32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>241.0142888776591</v>
@@ -3153,25 +3155,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>96.52468151912598</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>216.6999729388017</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3247,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3272,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3281,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3308,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3317,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3354,19 +3356,19 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,25 +3395,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>199.6630138603226</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>167.7849206417118</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3466,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3481,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="D38" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>241.0142888776591</v>
@@ -3597,10 +3599,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>29.88929839105575</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>141.1252983242763</v>
       </c>
     </row>
     <row r="40">
@@ -3661,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3743,14 +3745,14 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
@@ -3761,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3785,28 +3787,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>159.0801288120801</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>21.16030022554292</v>
+      </c>
+      <c r="Y41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,28 +3818,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>13.66473413638039</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>8.438698031532754</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3870,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3879,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3907,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3980,70 +3982,70 @@
         <v>205.5178444382804</v>
       </c>
       <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>31.1509994400877</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4074,10 +4076,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>8.590354951141745</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4104,16 +4106,16 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>205.5178444382804</v>
@@ -4122,7 +4124,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="46">
@@ -4135,67 +4137,67 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.8838132313431</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C2" t="n">
-        <v>406.8838132313431</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D2" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E2" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F2" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G2" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H2" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
@@ -4337,10 +4339,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N2" t="n">
-        <v>706.4576170384386</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O2" t="n">
         <v>822.0713777531216</v>
@@ -4355,25 +4357,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="V2" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W2" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X2" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y2" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C3" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D3" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E3" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F3" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G3" t="n">
         <v>16.44142755506243</v>
@@ -4410,13 +4412,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>345.2616536067974</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M3" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N3" t="n">
         <v>366.5706756325438</v>
@@ -4437,22 +4439,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U3" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V3" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W3" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X3" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y3" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="4">
@@ -4483,10 +4485,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="I4" t="n">
-        <v>110.7436296931158</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
         <v>16.44142755506243</v>
@@ -4571,13 +4573,13 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O5" t="n">
         <v>732.4113224610707</v>
@@ -4604,13 +4606,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X5" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y5" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.44142755506243</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="C6" t="n">
-        <v>16.44142755506243</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="D6" t="n">
-        <v>16.44142755506243</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="E6" t="n">
-        <v>16.44142755506243</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="F6" t="n">
-        <v>16.44142755506243</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="G6" t="n">
-        <v>16.44142755506243</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H6" t="n">
         <v>16.44142755506243</v>
@@ -4647,22 +4649,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>163.1080096386462</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
@@ -4674,22 +4676,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>807.4381113577983</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U6" t="n">
-        <v>599.8443290969091</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V6" t="n">
-        <v>392.2505468360198</v>
+        <v>713.2134646893297</v>
       </c>
       <c r="W6" t="n">
-        <v>184.6567645751305</v>
+        <v>505.6196824284405</v>
       </c>
       <c r="X6" t="n">
-        <v>184.6567645751305</v>
+        <v>298.0259001675511</v>
       </c>
       <c r="Y6" t="n">
-        <v>184.6567645751305</v>
+        <v>298.0259001675511</v>
       </c>
     </row>
     <row r="7">
@@ -4720,10 +4722,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="I7" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4778,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.8838132313431</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="C8" t="n">
-        <v>199.2900309704538</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="D8" t="n">
-        <v>199.2900309704538</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="E8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="F8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N8" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O8" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4832,22 +4834,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="X8" t="n">
-        <v>822.0713777531216</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="Y8" t="n">
-        <v>614.4775954922324</v>
+        <v>28.51141680214578</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>822.0713777531216</v>
+        <v>345.09272902505</v>
       </c>
       <c r="C9" t="n">
-        <v>814.3015730003187</v>
+        <v>170.639699743923</v>
       </c>
       <c r="D9" t="n">
-        <v>665.3671633390675</v>
+        <v>21.70529008267172</v>
       </c>
       <c r="E9" t="n">
-        <v>506.1297083336119</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
@@ -4887,10 +4889,10 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>345.2616536067974</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M9" t="n">
-        <v>345.2616536067974</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N9" t="n">
         <v>366.5706756325438</v>
@@ -4905,28 +4907,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="Y9" t="n">
-        <v>822.0713777531216</v>
+        <v>513.308066045118</v>
       </c>
     </row>
     <row r="10">
@@ -5015,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C11" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E11" t="n">
         <v>16.44142755506243</v>
@@ -5042,16 +5044,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O11" t="n">
         <v>732.4113224610707</v>
@@ -5066,25 +5068,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T11" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U11" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V11" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W11" t="n">
         <v>614.4775954922324</v>
       </c>
       <c r="X11" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y11" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>339.8288664974407</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C12" t="n">
-        <v>165.3758372163137</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D12" t="n">
         <v>16.44142755506243</v>
@@ -5124,16 +5126,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N12" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P12" t="n">
         <v>752.6768192397923</v>
@@ -5142,28 +5144,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>339.8288664974407</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V12" t="n">
-        <v>339.8288664974407</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W12" t="n">
-        <v>339.8288664974407</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X12" t="n">
-        <v>339.8288664974407</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y12" t="n">
-        <v>339.8288664974407</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="13">
@@ -5279,10 +5281,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
         <v>379.753706324525</v>
@@ -5309,19 +5311,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U14" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="V14" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W14" t="n">
         <v>639.2227743377304</v>
       </c>
-      <c r="V14" t="n">
+      <c r="X14" t="n">
         <v>431.628992076841</v>
       </c>
-      <c r="W14" t="n">
+      <c r="Y14" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="X14" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3015730003187</v>
+        <v>440.0245662111054</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3671633390675</v>
+        <v>440.0245662111054</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>415.8300791907684</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>269.2955212176533</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I15" t="n">
         <v>17.19556020784815</v>
@@ -5367,10 +5369,10 @@
         <v>548.724319600695</v>
       </c>
       <c r="N15" t="n">
-        <v>548.724319600695</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O15" t="n">
-        <v>752.1869855945927</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P15" t="n">
         <v>752.6768192397923</v>
@@ -5397,10 +5399,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="16">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T17" t="n">
-        <v>953.9655401424092</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U17" t="n">
-        <v>953.9655401424092</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V17" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5595,16 +5597,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N18" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O18" t="n">
         <v>781.4136778972854</v>
@@ -5625,16 +5627,16 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y18" t="n">
         <v>19.28114311021272</v>
@@ -5692,10 +5694,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
         <v>19.28114311021272</v>
@@ -5729,19 +5731,19 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5805,40 +5807,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>69.84447166430675</v>
+        <v>269.5723599112974</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>269.5723599112974</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>269.5723599112974</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
         <v>542.809531908403</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>269.5723599112974</v>
       </c>
       <c r="V21" t="n">
-        <v>728.9050472788936</v>
+        <v>269.5723599112974</v>
       </c>
       <c r="W21" t="n">
-        <v>485.4562706347935</v>
+        <v>269.5723599112974</v>
       </c>
       <c r="X21" t="n">
-        <v>277.6047704292607</v>
+        <v>269.5723599112974</v>
       </c>
       <c r="Y21" t="n">
-        <v>69.84447166430675</v>
+        <v>269.5723599112974</v>
       </c>
     </row>
     <row r="22">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>509.4769954460863</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C23" t="n">
-        <v>509.4769954460863</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D23" t="n">
-        <v>509.4769954460863</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E23" t="n">
-        <v>509.4769954460863</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F23" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G23" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6016,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>414.6641751762832</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E24" t="n">
         <v>19.28114311021272</v>
@@ -6075,43 +6077,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>634.6640077999109</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V24" t="n">
-        <v>399.5118995681682</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W24" t="n">
-        <v>156.0631229240681</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X24" t="n">
-        <v>19.28114311021272</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>582.8795121963512</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>761.6974622895962</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C26" t="n">
-        <v>761.6974622895962</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D26" t="n">
-        <v>761.6974622895962</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E26" t="n">
-        <v>518.2486856454962</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F26" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G26" t="n">
         <v>31.35113235729608</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y26" t="n">
-        <v>761.6974622895962</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>446.0215048700907</v>
+        <v>292.9211302503287</v>
       </c>
       <c r="C27" t="n">
-        <v>271.5684755889637</v>
+        <v>292.9211302503287</v>
       </c>
       <c r="D27" t="n">
-        <v>122.6340659277124</v>
+        <v>292.9211302503287</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>292.9211302503287</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>292.9211302503287</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>154.1903048329442</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>40.82116924052353</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>689.4702815141908</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>689.4702815141908</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>446.0215048700907</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X27" t="n">
-        <v>446.0215048700907</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="Y27" t="n">
-        <v>446.0215048700907</v>
+        <v>292.9211302503287</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>274.0360370837871</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C29" t="n">
-        <v>274.0360370837871</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D29" t="n">
-        <v>274.0360370837871</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E29" t="n">
-        <v>274.0360370837871</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F29" t="n">
-        <v>30.58726043968704</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G29" t="n">
-        <v>30.58726043968704</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H29" t="n">
-        <v>30.58726043968704</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I29" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="S29" t="n">
-        <v>742.8341567219593</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T29" t="n">
-        <v>517.4848137278872</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U29" t="n">
-        <v>517.4848137278872</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V29" t="n">
-        <v>517.4848137278872</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W29" t="n">
-        <v>517.4848137278872</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="X29" t="n">
-        <v>517.4848137278872</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y29" t="n">
-        <v>517.4848137278872</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>344.6327430815143</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C30" t="n">
-        <v>344.6327430815143</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="D30" t="n">
-        <v>344.6327430815143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>344.6327430815143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>198.0981851083993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>59.3673596910148</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W30" t="n">
-        <v>720.6083788665362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X30" t="n">
-        <v>720.6083788665362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y30" t="n">
-        <v>512.8480801015824</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="31">
@@ -6658,10 +6660,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
         <v>19.28114311021272</v>
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="C32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="D32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="E32" t="n">
         <v>761.6974622895962</v>
-      </c>
-      <c r="C32" t="n">
-        <v>518.2486856454962</v>
-      </c>
-      <c r="D32" t="n">
-        <v>518.2486856454962</v>
-      </c>
-      <c r="E32" t="n">
-        <v>518.2486856454962</v>
       </c>
       <c r="F32" t="n">
         <v>518.2486856454962</v>
@@ -6786,37 +6788,37 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>866.5574772084888</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>693.1401326591576</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>490.9535380179237</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U33" t="n">
-        <v>262.7299197543128</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V33" t="n">
-        <v>262.7299197543128</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W33" t="n">
-        <v>19.28114311021272</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X33" t="n">
         <v>19.28114311021272</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>241.7186438601369</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>241.7186438601369</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>241.7186438601369</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>485.167420504237</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>485.167420504237</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>241.7186438601369</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>241.7186438601369</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.7186438601369</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6990,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>109.5807722530562</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="C36" t="n">
-        <v>109.5807722530562</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="D36" t="n">
-        <v>109.5807722530562</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="E36" t="n">
-        <v>109.5807722530562</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="F36" t="n">
-        <v>109.5807722530562</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G36" t="n">
-        <v>109.5807722530562</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H36" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M36" t="n">
         <v>304.2053859195205</v>
@@ -7041,25 +7043,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U36" t="n">
-        <v>862.8876260635219</v>
+        <v>487.790469534067</v>
       </c>
       <c r="V36" t="n">
-        <v>862.8876260635219</v>
+        <v>487.790469534067</v>
       </c>
       <c r="W36" t="n">
-        <v>693.407908243611</v>
+        <v>487.790469534067</v>
       </c>
       <c r="X36" t="n">
-        <v>485.5564080380782</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="Y36" t="n">
-        <v>277.7961092731243</v>
+        <v>279.9389693285341</v>
       </c>
     </row>
     <row r="37">
@@ -7114,28 +7116,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
         <v>19.28114311021272</v>
@@ -7151,16 +7153,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="C38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D38" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E38" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
         <v>262.7299197543128</v>
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>49.47235360622864</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C39" t="n">
-        <v>49.47235360622864</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D39" t="n">
-        <v>49.47235360622864</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E39" t="n">
-        <v>49.47235360622864</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F39" t="n">
-        <v>49.47235360622864</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G39" t="n">
-        <v>49.47235360622864</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7257,13 +7259,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
         <v>781.4136778972854</v>
@@ -7275,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W39" t="n">
-        <v>257.2326523711826</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="X39" t="n">
-        <v>257.2326523711826</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="Y39" t="n">
-        <v>49.47235360622864</v>
+        <v>109.5807722530562</v>
       </c>
     </row>
     <row r="40">
@@ -7309,10 +7311,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
         <v>829.5248650203655</v>
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>236.1051990630351</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C41" t="n">
-        <v>236.1051990630351</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D41" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E41" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J41" t="n">
         <v>16.44142755506243</v>
@@ -7418,13 +7420,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7433,28 +7435,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R41" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S41" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T41" t="n">
-        <v>651.2927635848137</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U41" t="n">
-        <v>651.2927635848137</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V41" t="n">
-        <v>443.6989813239244</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W41" t="n">
-        <v>236.1051990630351</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X41" t="n">
-        <v>236.1051990630351</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y41" t="n">
-        <v>236.1051990630351</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>190.8944568361894</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C42" t="n">
-        <v>16.44142755506243</v>
+        <v>813.547440347533</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>664.6130306862817</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>505.3755756808262</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>358.8410177077111</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>220.1101922903266</v>
       </c>
       <c r="H42" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I42" t="n">
         <v>16.44142755506243</v>
@@ -7491,19 +7493,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2616536067974</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M42" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N42" t="n">
-        <v>752.1869855945927</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O42" t="n">
-        <v>752.6768192397923</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P42" t="n">
         <v>752.6768192397923</v>
@@ -7518,22 +7520,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V42" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W42" t="n">
-        <v>412.2910008509983</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X42" t="n">
-        <v>412.2910008509983</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y42" t="n">
-        <v>204.697218590109</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="43">
@@ -7543,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F43" t="n">
         <v>16.44142755506243</v>
@@ -7600,19 +7602,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>431.628992076841</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="C44" t="n">
-        <v>224.0352098159517</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="G44" t="n">
         <v>16.44142755506243</v>
@@ -7649,7 +7651,7 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
         <v>176.2910403306274</v>
@@ -7670,28 +7672,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S44" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T44" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="U44" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="V44" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="W44" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="X44" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="Y44" t="n">
-        <v>639.2227743377304</v>
+        <v>463.0946480769296</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>25.87268642112264</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C45" t="n">
-        <v>25.87268642112264</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>25.87268642112264</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>25.87268642112264</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>25.87268642112264</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>25.87268642112264</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>25.87268642112264</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
@@ -7731,19 +7733,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M45" t="n">
-        <v>345.2616536067974</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7752,25 +7754,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>441.0602509429012</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V45" t="n">
-        <v>441.0602509429012</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W45" t="n">
-        <v>233.4664686820119</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X45" t="n">
-        <v>25.87268642112264</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y45" t="n">
-        <v>25.87268642112264</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="46">
@@ -7780,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C46" t="n">
         <v>16.44142755506243</v>
@@ -7843,13 +7845,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
   </sheetData>
@@ -7985,13 +7987,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
         <v>231.2329957552695</v>
@@ -8058,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>152.8659767558044</v>
+        <v>279.489774794024</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
@@ -8219,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
@@ -8228,7 +8230,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8295,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,13 +8537,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N9" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
         <v>348.1140888827248</v>
@@ -8690,19 +8692,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8772,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>160.0786444523452</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
         <v>347.6518783602987</v>
@@ -8784,7 +8786,7 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>134.4691888741278</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8927,13 +8929,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>415.4335334139435</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
@@ -9015,13 +9017,13 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>134.4691888741278</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9243,10 +9245,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
@@ -9255,7 +9257,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>198.1125443848066</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9480,16 +9482,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>301.248502863135</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9723,7 +9725,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10434,19 +10436,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N33" t="n">
-        <v>301.2485028631349</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,13 +10667,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M36" t="n">
-        <v>197.6503338623806</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10905,16 +10907,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>401.9436843039723</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
@@ -11075,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>286.7024424905649</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>143.091025904242</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11297,10 +11299,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>293.1751087726566</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M44" t="n">
         <v>435.8640776655532</v>
@@ -11379,13 +11381,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N45" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>173.6629242394455</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22565,10 +22567,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>4.958045132125505</v>
+        <v>41.40506154378102</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22595,10 +22597,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22607,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22638,7 +22640,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>122.8565834318405</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -22677,19 +22679,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>19.14461131358425</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0.1648513390239543</v>
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>115.6226874585631</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22784,10 +22786,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>184.2527743897701</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22844,7 +22846,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>168.2208513361757</v>
       </c>
       <c r="X5" t="n">
         <v>164.2132562401886</v>
@@ -22878,7 +22880,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -22914,19 +22916,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>185.6777949634516</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>27.28274271114486</v>
+        <v>125.0312532162713</v>
       </c>
       <c r="W6" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22960,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>22.26350734189029</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23018,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>200.9102526910243</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23042,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23072,7 +23074,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>54.02502153750649</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23081,10 +23083,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y8" t="n">
         <v>180.7200942177732</v>
@@ -23097,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>165.0163922830409</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>152.4338565530678</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23166,7 +23168,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="10">
@@ -23255,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>173.6629242394455</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23306,7 +23308,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23318,10 +23320,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>188.7109832972316</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23334,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>158.2215652569456</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23382,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>220.5270298891533</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="13">
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23549,19 +23551,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>70.32553552659914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>143.7231242791326</v>
+        <v>168.2208513361757</v>
       </c>
       <c r="X14" t="n">
         <v>164.2132562401886</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="15">
@@ -23574,13 +23576,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>165.0163922830409</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>133.6925383052674</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23592,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23637,7 +23639,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23741,16 +23743,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>174.0429600055611</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23774,22 +23776,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>215.4233321629012</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23865,19 +23867,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>209.3158484108216</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23932,13 +23934,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23966,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23984,7 +23986,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24011,19 +24013,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>149.0074258151476</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24032,10 +24034,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24048,13 +24050,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>122.6508037197626</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24066,10 +24068,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>10.40716838893204</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24215,16 +24217,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>373.0723303772616</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24254,7 +24256,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24282,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>86.36944326294567</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24330,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>70.35882518776063</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24418,13 +24420,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24449,13 +24451,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24485,22 +24487,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>237.3633207320585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24509,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>185.9018423672239</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24522,25 +24524,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>55.32568686607625</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>68.07200698240737</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24567,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24604,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24655,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24689,19 +24691,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.7562331984329429</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,16 +24724,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>8.181203141508671</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24743,10 +24745,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24756,25 +24758,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>82.77242830881268</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>72.55008982150241</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24898,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="32">
@@ -24914,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>182.3977453746509</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>181.5942737834321</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>174.288448637476</v>
@@ -25041,25 +25043,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>3.633152633517156</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>16.10061421062358</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25135,10 +25137,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25160,7 +25162,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25169,7 +25171,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>119.2616763733422</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25196,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25205,22 +25207,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25230,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25242,19 +25244,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,25 +25283,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>26.27836822065225</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>83.91006251920783</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25354,7 +25356,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
@@ -25369,7 +25371,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>205.1127189901543</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25391,19 +25393,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275656</v>
       </c>
       <c r="D38" t="n">
-        <v>142.397655977241</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>98.46051323810809</v>
@@ -25485,10 +25487,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>82.3461458454407</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25515,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>64.55739745302807</v>
       </c>
     </row>
     <row r="40">
@@ -25549,13 +25551,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25631,13 +25633,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25649,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>64.01572075205127</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>348.5708004529261</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="42">
@@ -25704,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>152.868449513487</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>164.269800956783</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -25758,7 +25760,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25767,13 +25769,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25795,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G43" t="n">
         <v>167.9909793584588</v>
@@ -25840,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25868,7 +25870,7 @@
         <v>159.7550473327271</v>
       </c>
       <c r="D44" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25877,7 +25879,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>384.1517380750474</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25910,7 +25912,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25925,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.2178212748162</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25962,10 +25964,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>80.80627790027333</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25992,16 +25994,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
         <v>46.1771387226392</v>
@@ -26010,7 +26012,7 @@
         <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>24.66257839606692</v>
       </c>
     </row>
     <row r="46">
@@ -26023,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>442027.4821400859</v>
+        <v>442027.482140086</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>442027.4821400859</v>
+        <v>442027.482140086</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>442027.4821400859</v>
+        <v>442027.482140086</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>465607.1527581617</v>
+        <v>465607.1527581619</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>465607.1527581619</v>
+        <v>465607.1527581618</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>465607.1527581619</v>
+        <v>465607.1527581618</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>465607.1527581618</v>
+        <v>465607.1527581619</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>442027.482140086</v>
+        <v>442027.4821400861</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>442027.4821400861</v>
+        <v>442027.482140086</v>
       </c>
     </row>
   </sheetData>
@@ -26317,10 +26319,10 @@
         <v>157757.6418349316</v>
       </c>
       <c r="D2" t="n">
-        <v>157757.6418349317</v>
+        <v>157757.6418349316</v>
       </c>
       <c r="E2" t="n">
-        <v>157757.6418349317</v>
+        <v>157757.6418349316</v>
       </c>
       <c r="F2" t="n">
         <v>157757.6418349317</v>
@@ -26338,22 +26340,22 @@
         <v>166160.6725313324</v>
       </c>
       <c r="K2" t="n">
-        <v>166160.6725313325</v>
+        <v>166160.6725313324</v>
       </c>
       <c r="L2" t="n">
         <v>166160.6725313324</v>
       </c>
       <c r="M2" t="n">
-        <v>166160.6725313325</v>
+        <v>166160.6725313324</v>
       </c>
       <c r="N2" t="n">
         <v>166160.6725313324</v>
       </c>
       <c r="O2" t="n">
+        <v>157757.6418349317</v>
+      </c>
+      <c r="P2" t="n">
         <v>157757.6418349316</v>
-      </c>
-      <c r="P2" t="n">
-        <v>157757.6418349315</v>
       </c>
     </row>
     <row r="3">
@@ -26427,28 +26429,28 @@
         <v>47787.18911168983</v>
       </c>
       <c r="F4" t="n">
-        <v>47787.18911168983</v>
+        <v>47787.18911168982</v>
       </c>
       <c r="G4" t="n">
         <v>50385.00392753457</v>
       </c>
       <c r="H4" t="n">
+        <v>50385.00392753458</v>
+      </c>
+      <c r="I4" t="n">
         <v>50385.00392753457</v>
       </c>
-      <c r="I4" t="n">
-        <v>50385.00392753458</v>
-      </c>
       <c r="J4" t="n">
-        <v>50385.00392753458</v>
+        <v>50385.00392753457</v>
       </c>
       <c r="K4" t="n">
-        <v>50385.00392753458</v>
+        <v>50385.00392753457</v>
       </c>
       <c r="L4" t="n">
         <v>50385.00392753457</v>
       </c>
       <c r="M4" t="n">
-        <v>50385.00392753458</v>
+        <v>50385.00392753457</v>
       </c>
       <c r="N4" t="n">
         <v>50385.00392753457</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5026.388800295506</v>
+        <v>-5026.388800295521</v>
       </c>
       <c r="C6" t="n">
-        <v>63847.36778139429</v>
+        <v>63847.36778139431</v>
       </c>
       <c r="D6" t="n">
-        <v>63847.36778139438</v>
+        <v>63847.36778139431</v>
       </c>
       <c r="E6" t="n">
-        <v>97474.96778139437</v>
+        <v>97474.96778139428</v>
       </c>
       <c r="F6" t="n">
-        <v>97474.96778139437</v>
+        <v>97474.96778139439</v>
       </c>
       <c r="G6" t="n">
-        <v>91392.95686586906</v>
+        <v>91392.95686586903</v>
       </c>
       <c r="H6" t="n">
-        <v>101121.9998400362</v>
+        <v>101121.9998400361</v>
       </c>
       <c r="I6" t="n">
         <v>101121.9998400361</v>
       </c>
       <c r="J6" t="n">
-        <v>47349.48894982671</v>
+        <v>47349.48894982668</v>
       </c>
       <c r="K6" t="n">
+        <v>101121.9998400361</v>
+      </c>
+      <c r="L6" t="n">
         <v>101121.9998400362</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>101121.9998400361</v>
       </c>
-      <c r="M6" t="n">
-        <v>101121.9998400362</v>
-      </c>
       <c r="N6" t="n">
-        <v>101121.9998400362</v>
+        <v>101121.9998400361</v>
       </c>
       <c r="O6" t="n">
-        <v>97474.9677813943</v>
+        <v>97474.96778139439</v>
       </c>
       <c r="P6" t="n">
-        <v>97474.96778139425</v>
+        <v>97474.96778139428</v>
       </c>
     </row>
   </sheetData>
@@ -34705,13 +34707,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34778,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
-        <v>21.52426467247106</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
@@ -34939,7 +34941,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
@@ -34948,7 +34950,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,13 +35257,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="N9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>21.52426467247106</v>
       </c>
       <c r="O9" t="n">
         <v>205.5178444382804</v>
@@ -35410,19 +35412,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35492,7 +35494,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
         <v>205.5178444382804</v>
@@ -35504,7 +35506,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35647,13 +35649,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>185.0873001866707</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
@@ -35735,13 +35737,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.494781459797586</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35963,10 +35965,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
@@ -35975,7 +35977,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36200,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9067907798017</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36443,7 +36445,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36455,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -37154,19 +37156,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N33" t="n">
-        <v>169.9067907798016</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37318,7 +37320,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P35" t="n">
         <v>90.5657124162131</v>
@@ -37385,13 +37387,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M36" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37549,7 +37551,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37625,16 +37627,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37786,7 +37788,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>171.5974510766996</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
@@ -37795,7 +37797,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="O42" t="n">
-        <v>0.494781459797586</v>
-      </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38017,10 +38019,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>57.40869380266933</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M44" t="n">
         <v>205.5178444382804</v>
@@ -38099,13 +38101,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>91.61977832229879</v>
+      </c>
+      <c r="N45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>21.52426467247106</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
@@ -38114,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_6_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_6_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>638295.8720392422</v>
+        <v>534063.3737757988</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443469</v>
+        <v>18621122.00443468</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5246923.328416014</v>
+        <v>5246923.328416013</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -679,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>205.5178444382804</v>
@@ -715,13 +715,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>80.11569190233641</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -895,59 +895,59 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>205.5178444382804</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>8.311618392921693</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>107.769333933154</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,16 +1177,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>205.5178444382804</v>
@@ -1214,19 +1214,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>5.211223902333198</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>201.1826719249779</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>171.0294181666926</v>
+      </c>
+      <c r="Y11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X11" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.311618392921693</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1499,16 +1499,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>14.69006202085835</v>
       </c>
       <c r="V12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1615,10 +1615,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1651,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>205.5178444382804</v>
+        <v>9.211010870930394</v>
       </c>
       <c r="Y14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1691,10 +1691,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>23.95254215013359</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1703,10 +1703,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>104.8641324088567</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,10 +1852,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1891,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1928,22 +1928,22 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>66.85967777123658</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -1979,19 +1979,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>16.62553367015321</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2080,76 +2080,76 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>58.39471844666272</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -2207,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>215.5342136920428</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,64 +2317,64 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>212.2853856434421</v>
       </c>
       <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>86.33905572537007</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -2408,19 +2408,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>208.2638363878124</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,10 +2602,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -2614,7 +2614,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2648,16 +2648,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>21.3246258690077</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2684,13 +2684,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>151.7067079312782</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2806,50 +2806,50 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I29" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.809496073036132</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2876,7 +2876,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>64.67263725582607</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>117.6168938316385</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3037,10 +3037,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>241.0142888776591</v>
@@ -3049,10 +3049,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,19 +3155,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>216.6999729388017</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
@@ -3176,7 +3176,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="34">
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3271,17 +3271,17 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
@@ -3322,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3347,22 +3347,22 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>111.5490748536004</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3392,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>199.6630138603226</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3410,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3505,73 +3505,73 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E38" t="n">
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>64.38401073897946</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3602,10 +3602,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3647,10 +3647,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>141.1252983242763</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3663,61 +3663,61 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3751,19 +3751,19 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>159.0801288120801</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3787,10 +3787,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T41" t="n">
         <v>205.5178444382804</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>21.16030022554292</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3821,13 +3821,13 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>8.438698031532754</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -3839,7 +3839,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3875,10 +3875,10 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>49.96256690006845</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3909,55 +3909,55 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,59 +3976,59 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
+      <c r="F44" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>31.1509994400877</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4070,16 +4070,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4106,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>170.0470824279954</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4197,10 +4197,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>199.2900309704538</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="C2" t="n">
-        <v>199.2900309704538</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="D2" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E2" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F2" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G2" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
@@ -4339,43 +4339,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N2" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O2" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S2" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T2" t="n">
-        <v>406.8838132313431</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U2" t="n">
-        <v>406.8838132313431</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="V2" t="n">
-        <v>406.8838132313431</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="W2" t="n">
-        <v>199.2900309704538</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="X2" t="n">
-        <v>199.2900309704538</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="Y2" t="n">
-        <v>199.2900309704538</v>
+        <v>37.81546818692397</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>219.90409354896</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P3" t="n">
         <v>752.6768192397923</v>
@@ -4433,28 +4433,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T3" t="n">
-        <v>639.2227743377304</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U3" t="n">
-        <v>431.628992076841</v>
+        <v>513.308066045118</v>
       </c>
       <c r="V3" t="n">
-        <v>431.628992076841</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="W3" t="n">
-        <v>224.0352098159517</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="X3" t="n">
-        <v>224.0352098159517</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C5" t="n">
         <v>16.44142755506243</v>
@@ -4570,16 +4570,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N5" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O5" t="n">
         <v>732.4113224610707</v>
@@ -4591,22 +4591,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="W5" t="n">
-        <v>639.2227743377304</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="X5" t="n">
         <v>431.628992076841</v>
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>129.8105631474831</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C6" t="n">
-        <v>129.8105631474831</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="D6" t="n">
-        <v>129.8105631474831</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="E6" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G6" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H6" t="n">
         <v>16.44142755506243</v>
@@ -4655,13 +4655,13 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>548.724319600695</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N6" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O6" t="n">
-        <v>752.1869855945927</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
         <v>822.0713777531216</v>
@@ -4682,16 +4682,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V6" t="n">
-        <v>713.2134646893297</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W6" t="n">
-        <v>505.6196824284405</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X6" t="n">
-        <v>298.0259001675511</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y6" t="n">
-        <v>298.0259001675511</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K7" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L7" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M7" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N7" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28.51141680214578</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="C8" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D8" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>16.44142755506243</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L8" t="n">
-        <v>196.517279139721</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T8" t="n">
-        <v>651.2927635848137</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U8" t="n">
-        <v>651.2927635848137</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V8" t="n">
-        <v>651.2927635848137</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W8" t="n">
-        <v>443.6989813239244</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="X8" t="n">
-        <v>236.1051990630351</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="Y8" t="n">
-        <v>28.51141680214578</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>345.09272902505</v>
+        <v>450.6412206068132</v>
       </c>
       <c r="C9" t="n">
-        <v>170.639699743923</v>
+        <v>450.6412206068132</v>
       </c>
       <c r="D9" t="n">
-        <v>21.70529008267172</v>
+        <v>301.706810945562</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44142755506243</v>
+        <v>301.706810945562</v>
       </c>
       <c r="F9" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="G9" t="n">
         <v>16.44142755506243</v>
@@ -4889,46 +4889,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>163.1080096386462</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N9" t="n">
-        <v>366.5706756325438</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V9" t="n">
-        <v>720.9018483060073</v>
+        <v>618.8565576268813</v>
       </c>
       <c r="W9" t="n">
-        <v>720.9018483060073</v>
+        <v>618.8565576268813</v>
       </c>
       <c r="X9" t="n">
-        <v>720.9018483060073</v>
+        <v>618.8565576268813</v>
       </c>
       <c r="Y9" t="n">
-        <v>513.308066045118</v>
+        <v>618.8565576268813</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4995,19 +4995,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="C11" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="D11" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="E11" t="n">
         <v>224.0352098159517</v>
       </c>
-      <c r="C11" t="n">
+      <c r="F11" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="D11" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="E11" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="F11" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="G11" t="n">
         <v>16.44142755506243</v>
@@ -5044,10 +5044,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
         <v>379.753706324525</v>
@@ -5062,28 +5062,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W11" t="n">
-        <v>614.4775954922324</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X11" t="n">
-        <v>431.628992076841</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y11" t="n">
         <v>431.628992076841</v>
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>190.8944568361894</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C12" t="n">
         <v>16.44142755506243</v>
@@ -5126,19 +5126,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2616536067974</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M12" t="n">
-        <v>548.724319600695</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N12" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O12" t="n">
-        <v>752.1869855945927</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5147,25 +5147,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V12" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W12" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X12" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y12" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5238,13 +5238,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="C14" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="D14" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="E14" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="F14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M14" t="n">
         <v>379.753706324525</v>
@@ -5299,31 +5299,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W14" t="n">
-        <v>639.2227743377304</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="X14" t="n">
-        <v>431.628992076841</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="Y14" t="n">
-        <v>224.0352098159517</v>
+        <v>651.2927635848137</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>614.4775954922324</v>
+        <v>716.1480116835694</v>
       </c>
       <c r="C15" t="n">
-        <v>440.0245662111054</v>
+        <v>541.6949824024424</v>
       </c>
       <c r="D15" t="n">
-        <v>440.0245662111054</v>
+        <v>392.7605727411911</v>
       </c>
       <c r="E15" t="n">
-        <v>415.8300791907684</v>
+        <v>392.7605727411911</v>
       </c>
       <c r="F15" t="n">
-        <v>269.2955212176533</v>
+        <v>246.2260147680761</v>
       </c>
       <c r="G15" t="n">
-        <v>130.5646958002688</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="H15" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I15" t="n">
         <v>17.19556020784815</v>
@@ -5363,13 +5363,13 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
+        <v>141.7989876128999</v>
+      </c>
+      <c r="M15" t="n">
         <v>345.2616536067974</v>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>548.724319600695</v>
-      </c>
-      <c r="N15" t="n">
-        <v>570.0333416264414</v>
       </c>
       <c r="O15" t="n">
         <v>570.0333416264414</v>
@@ -5384,25 +5384,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>716.1480116835694</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>716.1480116835694</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>716.1480116835694</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>716.1480116835694</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>716.1480116835694</v>
       </c>
       <c r="X15" t="n">
-        <v>614.4775954922324</v>
+        <v>716.1480116835694</v>
       </c>
       <c r="Y15" t="n">
-        <v>614.4775954922324</v>
+        <v>716.1480116835694</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5475,13 +5475,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>132.7447050367114</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>520.918188268317</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5600,16 +5600,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U18" t="n">
-        <v>470.4902185192667</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V18" t="n">
-        <v>470.4902185192667</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W18" t="n">
-        <v>227.0414418751666</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X18" t="n">
-        <v>227.0414418751666</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
     </row>
     <row r="19">
@@ -5697,10 +5697,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
         <v>19.28114311021272</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>90.33569644483418</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>269.5723599112974</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C21" t="n">
-        <v>269.5723599112974</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>269.5723599112974</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
         <v>20.03527576299844</v>
@@ -5834,13 +5834,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
         <v>542.809531908403</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U21" t="n">
-        <v>269.5723599112974</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V21" t="n">
-        <v>269.5723599112974</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W21" t="n">
-        <v>269.5723599112974</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X21" t="n">
-        <v>269.5723599112974</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y21" t="n">
-        <v>269.5723599112974</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="22">
@@ -5943,10 +5943,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6019,22 +6019,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>414.6641751762832</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="C24" t="n">
-        <v>327.4530077769195</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D24" t="n">
-        <v>178.5185981156682</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6077,43 +6077,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="T24" t="n">
-        <v>790.6398109613051</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="U24" t="n">
-        <v>790.6398109613051</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="V24" t="n">
-        <v>790.6398109613051</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="W24" t="n">
-        <v>790.6398109613051</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="X24" t="n">
-        <v>790.6398109613051</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="Y24" t="n">
-        <v>582.8795121963512</v>
+        <v>817.1412885554689</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.35113235729608</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C26" t="n">
-        <v>31.35113235729608</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D26" t="n">
-        <v>31.35113235729608</v>
+        <v>485.167420504237</v>
       </c>
       <c r="E26" t="n">
-        <v>31.35113235729608</v>
+        <v>485.167420504237</v>
       </c>
       <c r="F26" t="n">
-        <v>31.35113235729608</v>
+        <v>485.167420504237</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="H26" t="n">
         <v>31.35113235729608</v>
@@ -6250,28 +6250,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>366.1018663125844</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U26" t="n">
-        <v>122.6530896684844</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V26" t="n">
-        <v>31.35113235729608</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W26" t="n">
-        <v>31.35113235729608</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X26" t="n">
-        <v>31.35113235729608</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.35113235729608</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="27">
@@ -6281,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>292.9211302503287</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C27" t="n">
-        <v>292.9211302503287</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>292.9211302503287</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>292.9211302503287</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>292.9211302503287</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>154.1903048329442</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>40.82116924052353</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6332,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>637.4007120408221</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="W27" t="n">
-        <v>500.6814290152826</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="X27" t="n">
-        <v>500.6814290152826</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="Y27" t="n">
-        <v>292.9211302503287</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="28">
@@ -6417,10 +6417,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>475.3318284112885</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C29" t="n">
-        <v>475.3318284112885</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D29" t="n">
-        <v>475.3318284112885</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E29" t="n">
-        <v>475.3318284112885</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F29" t="n">
-        <v>475.3318284112885</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G29" t="n">
-        <v>475.3318284112885</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>962.2293816994886</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V29" t="n">
-        <v>962.2293816994886</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W29" t="n">
-        <v>962.2293816994886</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X29" t="n">
-        <v>718.7806050553886</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y29" t="n">
-        <v>475.3318284112885</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>259.0600686093459</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C30" t="n">
-        <v>84.60703932821886</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6551,43 +6551,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>259.0600686093459</v>
+        <v>845.2522122463549</v>
       </c>
       <c r="V30" t="n">
-        <v>259.0600686093459</v>
+        <v>610.1001040146123</v>
       </c>
       <c r="W30" t="n">
-        <v>259.0600686093459</v>
+        <v>610.1001040146123</v>
       </c>
       <c r="X30" t="n">
-        <v>259.0600686093459</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="Y30" t="n">
-        <v>259.0600686093459</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="31">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
         <v>19.28114311021272</v>
@@ -6666,7 +6666,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C32" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="D32" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="E32" t="n">
-        <v>761.6974622895962</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="F32" t="n">
-        <v>518.2486856454962</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="G32" t="n">
-        <v>274.7999090013961</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6727,25 +6727,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="Y32" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>689.4702815141908</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>470.5814199598456</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>227.1326433157456</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X33" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6970,19 +6970,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V35" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>279.9389693285341</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="C36" t="n">
-        <v>279.9389693285341</v>
+        <v>587.4175315882752</v>
       </c>
       <c r="D36" t="n">
-        <v>279.9389693285341</v>
+        <v>438.4831219270239</v>
       </c>
       <c r="E36" t="n">
-        <v>279.9389693285341</v>
+        <v>279.2456669215684</v>
       </c>
       <c r="F36" t="n">
-        <v>133.4044113554191</v>
+        <v>132.7111089484534</v>
       </c>
       <c r="G36" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
         <v>20.03527576299844</v>
@@ -7022,10 +7022,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
         <v>542.809531908403</v>
@@ -7040,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>689.4702815141908</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>487.790469534067</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V36" t="n">
-        <v>487.790469534067</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W36" t="n">
-        <v>487.790469534067</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X36" t="n">
-        <v>279.9389693285341</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y36" t="n">
-        <v>279.9389693285341</v>
+        <v>761.8705608694022</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
         <v>19.28114311021272</v>
@@ -7116,31 +7116,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C38" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D38" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7219,7 +7219,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7229,40 +7229,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>109.5807722530562</v>
+        <v>85.06963004479587</v>
       </c>
       <c r="C39" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>487.2836868729568</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>252.1315786412141</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>252.1315786412141</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X39" t="n">
-        <v>252.1315786412141</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="Y39" t="n">
-        <v>109.5807722530562</v>
+        <v>85.06963004479587</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>224.0352098159517</v>
+        <v>396.792197863116</v>
       </c>
       <c r="C41" t="n">
-        <v>224.0352098159517</v>
+        <v>396.792197863116</v>
       </c>
       <c r="D41" t="n">
-        <v>224.0352098159517</v>
+        <v>396.792197863116</v>
       </c>
       <c r="E41" t="n">
-        <v>224.0352098159517</v>
+        <v>396.792197863116</v>
       </c>
       <c r="F41" t="n">
-        <v>16.44142755506243</v>
+        <v>396.792197863116</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J41" t="n">
         <v>16.44142755506243</v>
@@ -7420,10 +7420,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O41" t="n">
         <v>732.4113224610707</v>
@@ -7435,28 +7435,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R41" t="n">
-        <v>660.5968149695918</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S41" t="n">
-        <v>660.5968149695918</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="T41" t="n">
-        <v>453.0030327087026</v>
+        <v>396.792197863116</v>
       </c>
       <c r="U41" t="n">
-        <v>453.0030327087026</v>
+        <v>396.792197863116</v>
       </c>
       <c r="V41" t="n">
-        <v>453.0030327087026</v>
+        <v>396.792197863116</v>
       </c>
       <c r="W41" t="n">
-        <v>453.0030327087026</v>
+        <v>396.792197863116</v>
       </c>
       <c r="X41" t="n">
-        <v>431.628992076841</v>
+        <v>396.792197863116</v>
       </c>
       <c r="Y41" t="n">
-        <v>224.0352098159517</v>
+        <v>396.792197863116</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>822.0713777531216</v>
+        <v>564.0103561992339</v>
       </c>
       <c r="C42" t="n">
-        <v>813.547440347533</v>
+        <v>564.0103561992339</v>
       </c>
       <c r="D42" t="n">
-        <v>664.6130306862817</v>
+        <v>415.0759465379826</v>
       </c>
       <c r="E42" t="n">
-        <v>505.3755756808262</v>
+        <v>415.0759465379826</v>
       </c>
       <c r="F42" t="n">
-        <v>358.8410177077111</v>
+        <v>268.5413885648676</v>
       </c>
       <c r="G42" t="n">
-        <v>220.1101922903266</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H42" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I42" t="n">
         <v>16.44142755506243</v>
@@ -7493,22 +7493,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>163.1080096386462</v>
+        <v>211.6833797714288</v>
       </c>
       <c r="M42" t="n">
-        <v>366.5706756325438</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N42" t="n">
-        <v>366.5706756325438</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O42" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P42" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7523,19 +7523,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>771.6041384601232</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>564.0103561992339</v>
       </c>
       <c r="W42" t="n">
-        <v>822.0713777531216</v>
+        <v>564.0103561992339</v>
       </c>
       <c r="X42" t="n">
-        <v>822.0713777531216</v>
+        <v>564.0103561992339</v>
       </c>
       <c r="Y42" t="n">
-        <v>822.0713777531216</v>
+        <v>564.0103561992339</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F43" t="n">
         <v>16.44142755506243</v>
@@ -7605,16 +7605,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="V43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>255.5008658160403</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C44" t="n">
-        <v>47.90708355515102</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D44" t="n">
-        <v>47.90708355515102</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E44" t="n">
-        <v>47.90708355515102</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F44" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
         <v>16.44142755506243</v>
@@ -7654,7 +7654,7 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>176.2910403306274</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M44" t="n">
         <v>379.753706324525</v>
@@ -7672,28 +7672,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>670.6884303378189</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T44" t="n">
-        <v>670.6884303378189</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U44" t="n">
-        <v>670.6884303378189</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V44" t="n">
-        <v>670.6884303378189</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W44" t="n">
-        <v>463.0946480769296</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X44" t="n">
-        <v>463.0946480769296</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y44" t="n">
-        <v>463.0946480769296</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>16.44142755506243</v>
+        <v>269.2955212176533</v>
       </c>
       <c r="C45" t="n">
-        <v>16.44142755506243</v>
+        <v>269.2955212176533</v>
       </c>
       <c r="D45" t="n">
-        <v>16.44142755506243</v>
+        <v>269.2955212176533</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>269.2955212176533</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>269.2955212176533</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
@@ -7733,19 +7733,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>141.7989876128999</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M45" t="n">
-        <v>232.5025681519757</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N45" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O45" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7754,25 +7754,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T45" t="n">
-        <v>822.0713777531216</v>
+        <v>476.8893034785426</v>
       </c>
       <c r="U45" t="n">
-        <v>822.0713777531216</v>
+        <v>269.2955212176533</v>
       </c>
       <c r="V45" t="n">
-        <v>614.4775954922324</v>
+        <v>269.2955212176533</v>
       </c>
       <c r="W45" t="n">
-        <v>406.8838132313431</v>
+        <v>269.2955212176533</v>
       </c>
       <c r="X45" t="n">
-        <v>199.2900309704538</v>
+        <v>269.2955212176533</v>
       </c>
       <c r="Y45" t="n">
-        <v>16.44142755506243</v>
+        <v>269.2955212176533</v>
       </c>
     </row>
     <row r="46">
@@ -7845,7 +7845,7 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X46" t="n">
         <v>16.44142755506243</v>
@@ -7987,7 +7987,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>401.9436843039723</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
@@ -7996,7 +7996,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>279.489774794024</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8218,10 +8218,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
@@ -8230,7 +8230,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8303,16 +8303,16 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>204.5647025239554</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8455,13 +8455,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
@@ -8470,7 +8470,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8537,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,13 +8692,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>415.4335334139435</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
@@ -8774,22 +8774,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>134.4691888741278</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,13 +8929,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>311.3779718877592</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
@@ -9011,16 +9011,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>164.1205091169155</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9248,19 +9248,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9482,16 +9482,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9725,7 +9725,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>241.9453110519923</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,13 +9956,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>303.312501347746</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9971,7 +9971,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10199,7 +10199,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>131.3417120833333</v>
@@ -10208,10 +10208,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10670,13 +10670,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10904,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11068,13 +11068,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11141,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>286.7024424905649</v>
+        <v>209.1446748894994</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11302,10 +11302,10 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -11381,13 +11381,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>160.0786444523452</v>
       </c>
       <c r="M45" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22552,7 +22552,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>333.52274139514</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22567,10 +22567,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>41.40506154378102</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,10 +22591,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>3.502225147964936</v>
@@ -22603,13 +22603,13 @@
         <v>17.57800512585095</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>19.14461131358425</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>125.6572933011411</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22831,10 +22831,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22846,10 +22846,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>168.2208513361757</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>164.2132562401886</v>
+        <v>338.5801012383814</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22862,16 +22862,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>149.3334620624792</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22880,7 +22880,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -22922,16 +22922,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>125.0312532162713</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W6" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="7">
@@ -22962,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22995,7 +22995,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23020,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>344.1125915454646</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23044,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,16 +23065,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>54.02502153750649</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23083,10 +23083,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>180.7200942177732</v>
@@ -23102,19 +23102,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>152.4338565530678</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23159,7 +23159,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>31.61791522444739</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -23168,7 +23168,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23235,7 +23235,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23272,7 +23272,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23302,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23320,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>188.7109832972316</v>
+        <v>198.7016825117765</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>158.2215652569456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23387,16 +23387,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>211.2513200601165</v>
       </c>
       <c r="V12" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23503,10 +23503,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
@@ -23518,7 +23518,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,10 +23539,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23557,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>168.2208513361757</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>164.2132562401886</v>
+        <v>360.5200898075386</v>
       </c>
       <c r="Y14" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23579,10 +23579,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>133.6925383052674</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23591,10 +23591,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,7 +23624,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>66.81903869498112</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
@@ -23639,7 +23639,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,10 +23740,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
@@ -23779,22 +23779,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>215.4233321629012</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23816,22 +23816,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>80.58538779340218</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23867,19 +23867,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>209.3158484108216</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23937,13 +23937,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23980,7 +23980,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>348.4813272950487</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -23992,7 +23992,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,31 +24013,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24056,7 +24056,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24068,7 +24068,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>142.630753465213</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>10.40716838893204</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24183,13 +24183,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24217,13 +24217,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>194.5906600982693</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24259,10 +24259,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24284,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>86.36944326294567</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24296,19 +24296,19 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>126.3942969708654</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24353,7 +24353,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24457,10 +24457,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>131.2109657279547</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24490,10 +24490,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24502,7 +24502,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>237.3633207320585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24524,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24536,16 +24536,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>68.07200698240737</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24572,13 +24572,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>74.23467414969664</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24685,7 +24685,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24694,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24724,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>8.181203141508671</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24736,7 +24736,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24745,10 +24745,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24764,7 +24764,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>82.77242830881268</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>108.3244882493363</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G31" t="n">
         <v>167.9909793584588</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24925,10 +24925,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>181.5942737834321</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>174.288448637476</v>
@@ -24937,10 +24937,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>207.2105735132092</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,19 +25043,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>16.10061421062358</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="34">
@@ -25131,13 +25131,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25159,16 +25159,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25210,19 +25210,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V35" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25235,22 +25235,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>25.79444230961022</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25280,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>26.27836822065225</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25298,7 +25298,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25356,7 +25356,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
@@ -25371,7 +25371,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1127189901543</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25393,22 +25393,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>152.9875061275656</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25472,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>108.3244882493363</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25490,10 +25490,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25535,10 +25535,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>64.55739745302807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25605,7 +25605,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25639,19 +25639,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>256.2226087030549</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25675,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T41" t="n">
         <v>17.57800512585095</v>
@@ -25693,10 +25693,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>348.5708004529261</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25709,13 +25709,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>164.269800956783</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -25727,7 +25727,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -25763,10 +25763,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>175.9788151809064</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.9909793584588</v>
@@ -25845,7 +25845,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>225.855928360474</v>
       </c>
       <c r="G44" t="n">
-        <v>384.1517380750474</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25912,10 +25912,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25927,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="45">
@@ -25958,16 +25958,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25994,25 +25994,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>30.1176462668262</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>24.66257839606692</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26085,10 +26085,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>442027.482140086</v>
+        <v>442027.4821400859</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>442027.482140086</v>
+        <v>442027.4821400859</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>442027.482140086</v>
+        <v>442027.4821400859</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>442027.482140086</v>
+        <v>442027.4821400861</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>465607.1527581618</v>
+        <v>465607.1527581617</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>465607.1527581619</v>
+        <v>465607.1527581618</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>465607.1527581618</v>
+        <v>465607.1527581617</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>465607.1527581619</v>
+        <v>465607.1527581618</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>442027.4821400861</v>
+        <v>442027.4821400859</v>
       </c>
     </row>
     <row r="16">
@@ -26325,7 +26325,7 @@
         <v>157757.6418349316</v>
       </c>
       <c r="F2" t="n">
-        <v>157757.6418349317</v>
+        <v>157757.6418349316</v>
       </c>
       <c r="G2" t="n">
         <v>166160.6725313324</v>
@@ -26352,7 +26352,7 @@
         <v>166160.6725313324</v>
       </c>
       <c r="O2" t="n">
-        <v>157757.6418349317</v>
+        <v>157757.6418349316</v>
       </c>
       <c r="P2" t="n">
         <v>157757.6418349316</v>
@@ -26426,40 +26426,40 @@
         <v>47787.18911168983</v>
       </c>
       <c r="E4" t="n">
+        <v>47787.18911168982</v>
+      </c>
+      <c r="F4" t="n">
         <v>47787.18911168983</v>
-      </c>
-      <c r="F4" t="n">
-        <v>47787.18911168982</v>
       </c>
       <c r="G4" t="n">
         <v>50385.00392753457</v>
       </c>
       <c r="H4" t="n">
-        <v>50385.00392753458</v>
+        <v>50385.00392753457</v>
       </c>
       <c r="I4" t="n">
         <v>50385.00392753457</v>
       </c>
       <c r="J4" t="n">
-        <v>50385.00392753457</v>
+        <v>50385.00392753458</v>
       </c>
       <c r="K4" t="n">
-        <v>50385.00392753457</v>
+        <v>50385.00392753458</v>
       </c>
       <c r="L4" t="n">
-        <v>50385.00392753457</v>
+        <v>50385.00392753458</v>
       </c>
       <c r="M4" t="n">
         <v>50385.00392753457</v>
       </c>
       <c r="N4" t="n">
-        <v>50385.00392753457</v>
+        <v>50385.00392753458</v>
       </c>
       <c r="O4" t="n">
+        <v>47787.18911168983</v>
+      </c>
+      <c r="P4" t="n">
         <v>47787.18911168982</v>
-      </c>
-      <c r="P4" t="n">
-        <v>47787.18911168983</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5026.388800295521</v>
+        <v>-17664.55095515602</v>
       </c>
       <c r="C6" t="n">
-        <v>63847.36778139431</v>
+        <v>51209.20562653378</v>
       </c>
       <c r="D6" t="n">
-        <v>63847.36778139431</v>
+        <v>51209.20562653381</v>
       </c>
       <c r="E6" t="n">
-        <v>97474.96778139428</v>
+        <v>84836.80562653382</v>
       </c>
       <c r="F6" t="n">
-        <v>97474.96778139439</v>
+        <v>84836.80562653384</v>
       </c>
       <c r="G6" t="n">
-        <v>91392.95686586903</v>
+        <v>79174.94624582861</v>
       </c>
       <c r="H6" t="n">
-        <v>101121.9998400361</v>
+        <v>88903.98921999571</v>
       </c>
       <c r="I6" t="n">
-        <v>101121.9998400361</v>
+        <v>88903.98921999565</v>
       </c>
       <c r="J6" t="n">
-        <v>47349.48894982668</v>
+        <v>35131.47832978627</v>
       </c>
       <c r="K6" t="n">
-        <v>101121.9998400361</v>
+        <v>88903.98921999565</v>
       </c>
       <c r="L6" t="n">
-        <v>101121.9998400362</v>
+        <v>88903.98921999564</v>
       </c>
       <c r="M6" t="n">
-        <v>101121.9998400361</v>
+        <v>88903.98921999565</v>
       </c>
       <c r="N6" t="n">
-        <v>101121.9998400361</v>
+        <v>88903.9892199957</v>
       </c>
       <c r="O6" t="n">
-        <v>97474.96778139439</v>
+        <v>84836.80562653378</v>
       </c>
       <c r="P6" t="n">
-        <v>97474.96778139428</v>
+        <v>84836.80562653382</v>
       </c>
     </row>
   </sheetData>
@@ -34707,7 +34707,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>171.5974510766996</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
@@ -34716,7 +34716,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -34938,10 +34938,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
@@ -34950,7 +34950,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35023,16 +35023,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>70.5902951096252</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35175,13 +35175,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
@@ -35190,7 +35190,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>185.0873001866707</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
@@ -35494,22 +35494,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>91.61977832229879</v>
+      </c>
+      <c r="N12" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M12" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
-        <v>0.494781459797586</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>81.03173866048648</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
@@ -35731,16 +35731,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="O15" t="n">
         <v>21.52426467247106</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35968,19 +35968,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
+        <v>113.3808631277494</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M20" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N20" t="n">
         <v>207.9338608153932</v>
@@ -36202,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N21" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36445,7 +36445,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>99.81127712997396</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>161.1784674257276</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36691,7 +36691,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36919,7 +36919,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36928,10 +36928,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37168,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37390,13 +37390,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37624,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37788,13 +37788,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>148.1480627106907</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38022,10 +38022,10 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
@@ -38101,13 +38101,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="M45" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
@@ -38116,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
